--- a/DB/Donnees_proj_1/TPOP_analysefinale_Lab1.xlsx
+++ b/DB/Donnees_proj_1/TPOP_analysefinale_Lab1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/A0DB44AEEFA2C45C/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15819\Desktop\TPOP_lou_et_melo_OwO\DB\Donnees_proj_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{CE3BBAEC-E0D3-403D-84B0-CB639B2F89B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3BC524D-E7B7-4595-A091-B3429B927F67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBC8B3-FC04-4329-84FF-A514BC80DBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{B25E86A8-5E66-47F6-BEF9-EC4B84D470FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B25E86A8-5E66-47F6-BEF9-EC4B84D470FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Sans calibration</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>Moyenne carrée:</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -121,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -273,19 +291,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -324,49 +329,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -396,11 +358,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,49 +425,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -492,16 +461,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -511,6 +477,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +539,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -583,6 +589,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35099.362999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36277.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37895.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41447.188000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47059.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54732.608999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58235.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -607,36 +643,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>213.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$5:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>35099.362999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36277.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37895.32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41447.188000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47059.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54732.608999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58235.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,6 +687,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4489.5069999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4964.1310000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8588.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10062.397000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14892.936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27269.559000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44739.690999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -705,36 +741,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>203.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$5:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4489.5069999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4964.1310000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8588.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10062.397000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14892.936</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27269.559000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44739.690999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,6 +788,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$H$5:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>34793.167999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35046.108999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35574.144999999997</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>37046.531000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41541.300999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47502.542999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57052.648000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$G$5:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -806,36 +842,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>34793.167999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35046.108999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35574.144999999997</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>37046.531000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41541.300999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47502.542999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57052.648000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,104 +850,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DDF3-4645-956F-F61294D069E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>TEST</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$5:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>155.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>193.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$5:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>34489.506999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34964.131000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38588.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40062.396999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44892.936000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57269.559000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74739.690999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-58ED-4B8B-BA9F-76CFAEBF5FC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -956,6 +864,122 @@
         </c:dLbls>
         <c:axId val="806980160"/>
         <c:axId val="806989280"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>TEST</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$5:$E$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>113.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>150.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>155.1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>170.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>193.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>203.2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$5:$I$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>34489.506999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>34964.131000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>38588.68</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40062.396999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44892.936000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>57269.559000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>74739.690999999992</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-58ED-4B8B-BA9F-76CFAEBF5FC3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="806980160"/>
@@ -1050,7 +1074,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1167,7 +1191,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1862,15 +1886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>437808</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>162605</xdr:rowOff>
+      <xdr:colOff>410914</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>127577</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>51712</xdr:rowOff>
+      <xdr:colOff>100683</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>141359</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2215,24 +2239,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79689C35-93B0-40C0-A337-2AD649E775E7}">
-  <dimension ref="B1:W14"/>
+  <dimension ref="B1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2256,7 +2284,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="2:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2280,43 +2308,43 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="35" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="35" t="s">
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="37"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -2376,7 +2404,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="16">
         <v>27.2</v>
@@ -2387,7 +2415,7 @@
       <c r="E5" s="16">
         <v>29.2</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <v>4489.5069999999996</v>
       </c>
       <c r="G5" s="16">
@@ -2396,47 +2424,56 @@
       <c r="H5" s="8">
         <v>34793.167999999998</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="27">
         <f>F5+30000</f>
         <v>34489.506999999998</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="16">
+        <f>(LOG((M5+$D$13),$D$12))+$D$14</f>
+        <v>107.83432470133617</v>
+      </c>
       <c r="L5" s="14">
         <v>28.7</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>35352.737999999998</v>
       </c>
       <c r="N5" s="9">
         <f>(K5-L5)^2</f>
-        <v>823.68999999999994</v>
-      </c>
-      <c r="O5" s="16"/>
+        <v>6262.2413459365034</v>
+      </c>
+      <c r="O5" s="16" t="e">
+        <f>(LOG((Q5+$F$13),$F$12))+$F$14</f>
+        <v>#NUM!</v>
+      </c>
       <c r="P5" s="14">
         <v>27.6</v>
       </c>
-      <c r="Q5" s="23">
-        <v>4454.2669999999998</v>
-      </c>
-      <c r="R5" s="9">
+      <c r="Q5" s="20">
+        <v>4434.2669999999998</v>
+      </c>
+      <c r="R5" s="9" t="e">
         <f>(O5-P5)^2</f>
-        <v>761.7600000000001</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="14">
+        <v>#NUM!</v>
+      </c>
+      <c r="S5" s="37">
+        <f>(LOG((U5+$H$13),$H$12))+$H$14</f>
+        <v>137.15650517523378</v>
+      </c>
+      <c r="T5" s="38">
         <v>124</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="20">
         <v>36440.398000000001</v>
       </c>
       <c r="V5" s="9">
         <f>(S5-T5)^2</f>
-        <v>15376</v>
+        <v>173.09362842595311</v>
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="17">
         <v>143.69999999999999</v>
@@ -2447,56 +2484,65 @@
       <c r="E6" s="17">
         <v>113.9</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <v>4964.1310000000003</v>
       </c>
       <c r="G6" s="17">
         <v>98.8</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <v>35046.108999999997</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="27">
         <f t="shared" ref="I6:I11" si="0">F6+30000</f>
         <v>34964.131000000001</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="16">
+        <f t="shared" ref="K6:K8" si="1">(LOG((M6+$D$13),$D$12))+$D$14</f>
+        <v>170.66597246966589</v>
+      </c>
       <c r="L6" s="15">
         <v>168.2</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <v>39005.347999999998</v>
       </c>
-      <c r="N6" s="9" t="e">
-        <f>(K6-#REF!)^2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="16"/>
+      <c r="N6" s="9">
+        <f>(K6-L6)^2</f>
+        <v>6.081020221150137</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" ref="O6:O8" si="2">(LOG((Q6+$F$13),$F$12))+$F$14</f>
+        <v>154.78418292318969</v>
+      </c>
       <c r="P6" s="15">
         <v>147.69999999999999</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="21">
         <v>9062.9140000000007</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" ref="R6:R8" si="1">(O6-P6)^2</f>
-        <v>21815.289999999997</v>
-      </c>
-      <c r="S6" s="16"/>
+        <f t="shared" ref="R6:R8" si="3">(O6-P6)^2</f>
+        <v>50.185647689212573</v>
+      </c>
+      <c r="S6" s="37">
+        <f t="shared" ref="S6:S8" si="4">(LOG((U6+$H$13),$H$12))+$H$14</f>
+        <v>153.20423401901496</v>
+      </c>
       <c r="T6" s="15">
         <v>151.1</v>
       </c>
-      <c r="U6" s="24">
+      <c r="U6" s="21">
         <v>38407.508000000002</v>
       </c>
       <c r="V6" s="9">
         <f>(S6-T6)^2</f>
-        <v>22831.21</v>
+        <v>4.4278008067798815</v>
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="17">
         <v>161.5</v>
@@ -2507,56 +2553,65 @@
       <c r="E7" s="17">
         <v>150.69999999999999</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>8588.68</v>
       </c>
       <c r="G7" s="17">
         <v>121.7</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>35574.144999999997</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="27">
         <f t="shared" si="0"/>
         <v>38588.68</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="29">
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>186.4440287509733</v>
+      </c>
+      <c r="L7" s="24">
         <v>184.8</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <v>42812.652000000002</v>
       </c>
       <c r="N7" s="9">
         <f>(K7-L6)^2</f>
-        <v>28291.239999999998</v>
-      </c>
-      <c r="O7" s="16"/>
+        <v>332.84458506634087</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="2"/>
+        <v>178.81400000709689</v>
+      </c>
       <c r="P7" s="15">
         <v>180.6</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="21">
         <v>19282.673999999999</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="1"/>
-        <v>32616.359999999997</v>
-      </c>
-      <c r="S7" s="16"/>
+        <f t="shared" si="3"/>
+        <v>3.1897959746498752</v>
+      </c>
+      <c r="S7" s="37">
+        <f t="shared" si="4"/>
+        <v>162.8197210364998</v>
+      </c>
       <c r="T7" s="15">
         <v>159.6</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U7" s="21">
         <v>40576.296999999999</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" ref="V7:V8" si="2">(S7-T7)^2</f>
-        <v>25472.16</v>
+        <f t="shared" ref="V7:V8" si="5">(S7-T7)^2</f>
+        <v>10.366603552879383</v>
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="2:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="17">
         <v>179.8</v>
@@ -2567,56 +2622,65 @@
       <c r="E8" s="17">
         <v>155.1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <v>10062.397000000001</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>140.30000000000001</v>
       </c>
       <c r="H8" s="10">
         <v>37046.531000000003</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="27">
         <f t="shared" si="0"/>
         <v>40062.396999999997</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="22">
+      <c r="K8" s="16">
+        <f t="shared" si="1"/>
+        <v>196.79225007007904</v>
+      </c>
+      <c r="L8" s="19">
         <v>200.3</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="22">
         <v>47147.593999999997</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" ref="N8" si="3">(K8-L8)^2</f>
-        <v>40120.090000000004</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="22">
+        <f t="shared" ref="N8" si="6">(K8-L8)^2</f>
+        <v>12.304309570860614</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="2"/>
+        <v>192.98137541195135</v>
+      </c>
+      <c r="P8" s="19">
         <v>201.1</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="22">
         <v>34028.959000000003</v>
       </c>
       <c r="R8" s="11">
-        <f t="shared" si="1"/>
-        <v>40441.21</v>
-      </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="22">
+        <f>(O8-P8)^2</f>
+        <v>65.912065201668057</v>
+      </c>
+      <c r="S8" s="37">
+        <f t="shared" si="4"/>
+        <v>182.99308872929959</v>
+      </c>
+      <c r="T8" s="19">
         <v>185.1</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="22">
         <v>50282.347999999998</v>
       </c>
       <c r="V8" s="11">
-        <f t="shared" si="2"/>
-        <v>34262.009999999995</v>
+        <f t="shared" si="5"/>
+        <v>4.4390751026044084</v>
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="17">
         <v>188.6</v>
@@ -2627,7 +2691,7 @@
       <c r="E9" s="6">
         <v>170.5</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="26">
         <v>14892.936</v>
       </c>
       <c r="G9" s="17">
@@ -2636,41 +2700,41 @@
       <c r="H9" s="7">
         <v>41541.300999999999</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="27">
         <f t="shared" si="0"/>
         <v>44892.936000000002</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="1" t="e">
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="1">
         <f>AVERAGE(N5:N8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="34" t="s">
+        <v>1653.367815198714</v>
+      </c>
+      <c r="O9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="1">
-        <f>AVERAGE(R5:R8)</f>
-        <v>23908.654999999999</v>
-      </c>
-      <c r="S9" s="34" t="s">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="41">
+        <f>AVERAGE(R6:R8)</f>
+        <v>39.762502955176835</v>
+      </c>
+      <c r="S9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="1">
-        <f>AVERAGE(V5:V8)</f>
-        <v>24485.344999999998</v>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="41">
+        <f>AVERAGE(V6:V8)</f>
+        <v>6.4111598207545581</v>
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="17">
         <v>209.2</v>
@@ -2681,7 +2745,7 @@
       <c r="E10" s="6">
         <v>193.5</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="26">
         <v>27269.559000000001</v>
       </c>
       <c r="G10" s="17">
@@ -2690,7 +2754,7 @@
       <c r="H10" s="7">
         <v>47502.542999999998</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="27">
         <f t="shared" si="0"/>
         <v>57269.559000000001</v>
       </c>
@@ -2709,9 +2773,9 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>213.6</v>
       </c>
       <c r="D11" s="7">
@@ -2720,7 +2784,7 @@
       <c r="E11" s="6">
         <v>203.2</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="26">
         <v>44739.690999999999</v>
       </c>
       <c r="G11" s="17">
@@ -2729,12 +2793,15 @@
       <c r="H11" s="7">
         <v>57052.648000000001</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="27">
         <f t="shared" si="0"/>
         <v>74739.690999999992</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <f>3^4</f>
+        <v>81</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2748,29 +2815,78 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="43">
+        <v>1.044</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1.05</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="36">
+        <v>1.05</v>
+      </c>
+      <c r="I12" s="40">
+        <f>(LOG((H7+H13),H12))+H14</f>
+        <v>121.97853207639301</v>
+      </c>
+      <c r="K12" t="e">
+        <f>(1324.71^(124+0.4))+34237.78</f>
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="13" spans="2:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="20"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="13"/>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="42">
+        <v>-35091.123</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-4479.6409999999996</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="35">
+        <v>-34784.531000000003</v>
+      </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+    <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="44">
+        <v>-21.449000000000002</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-18</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="39">
+        <v>-14.760999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="45" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2790,6 +2906,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D2AA3D2BAE541478CCEAD3EEE73CF38" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="89500ca229375cb1131219311c2ddb4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="676bd6d1-e1d1-4d0c-9b8f-91f3b1619ebf" xmlns:ns4="88b65a77-92e3-4e66-b01c-4ca2d287fca9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df25c3172a8e12cb188daa5b15797819" ns3:_="" ns4:_="">
     <xsd:import namespace="676bd6d1-e1d1-4d0c-9b8f-91f3b1619ebf"/>
@@ -3022,15 +3147,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3040,6 +3156,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B65D053-35C9-45E1-9AD3-2D35E3E960B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40866347-8427-4FC1-8168-7513C159692E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3054,14 +3178,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B65D053-35C9-45E1-9AD3-2D35E3E960B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
